--- a/百日计划.xlsx
+++ b/百日计划.xlsx
@@ -126,6 +126,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、239搭建文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -187,11 +191,7 @@
   <si>
     <t>1、文档导入功能测试思维导图、测试用例
 2、学习测量分析
-1、Python每日一练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、239搭建文档</t>
+1、Python每日一练(with as的用法、CSV文件的读写操作)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,13 +797,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">

--- a/百日计划.xlsx
+++ b/百日计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>倒计时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、239搭建文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -194,12 +190,54 @@
 1、Python每日一练(with as的用法、CSV文件的读写操作)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>莫干山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、测试文档导入、用例
+2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、239搭建文档
+1、接口自动化测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、探索性测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、行为驱动
+3、销售的视频
+1、python每日一练
+2、接口自动化测试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,7 +327,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -380,7 +430,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -415,7 +464,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,21 +639,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="1" customFormat="1">
       <c r="B2" s="1">
         <v>30</v>
       </c>
@@ -789,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,58 +846,92 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="4"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="4"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="4"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:31">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -860,7 +943,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -870,7 +953,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:31">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -880,7 +963,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -891,7 +974,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -902,7 +985,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -913,7 +996,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -924,7 +1007,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -935,7 +1018,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -946,7 +1029,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -957,7 +1040,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -968,7 +1051,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -979,7 +1062,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -990,7 +1073,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1001,7 +1084,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1012,7 +1095,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1023,7 +1106,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1034,7 +1117,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1045,7 +1128,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1056,7 +1139,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1067,7 +1150,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1082,13 +1165,16 @@
   <sortState columnSort="1" ref="B2:AE2">
     <sortCondition descending="1" ref="B2:AE2"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:I24"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:G9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="I3:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1097,12 +1183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,12 +1196,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/百日计划.xlsx
+++ b/百日计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
   <si>
     <t>倒计时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,19 +225,76 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-2、行为驱动
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2、行为驱动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3、销售的视频
 1、python每日一练
 2、接口自动化测试</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、搜书
+2、测试文档导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、测试文档导入
+2、行为驱动BDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、听讲座。上午配置管理
+下午UI自动化和BDD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +375,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -327,12 +390,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,6 +490,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -464,6 +525,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,22 +701,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:I24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="22.25" customWidth="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>30</v>
       </c>
@@ -838,20 +905,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -864,238 +931,272 @@
       <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="B10" s="5" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:31">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:31">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:31">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1106,7 +1207,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1117,7 +1218,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1128,7 +1229,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1139,7 +1240,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1150,7 +1251,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1165,9 +1266,7 @@
   <sortState columnSort="1" ref="B2:AE2">
     <sortCondition descending="1" ref="B2:AE2"/>
   </sortState>
-  <mergeCells count="9">
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
+  <mergeCells count="13">
     <mergeCell ref="B10:I24"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
@@ -1175,6 +1274,12 @@
     <mergeCell ref="F3:G9"/>
     <mergeCell ref="H3:H9"/>
     <mergeCell ref="I3:I9"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="K3:K9"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="M3:M9"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,12 +1288,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,12 +1301,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/百日计划.xlsx
+++ b/百日计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>倒计时</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,21 +108,6 @@
       </rPr>
       <t>2、github</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、Python
-2、selenium
-3、接口测试
-4、Jenkins
-5、Jmeter
-6、fiddler
-7、GitHub
-8、SQL
-9、Java
-10、burpsuite+sqlmap
-11、系统各个模块以及各个模块之间的联系（测量分析、报告配置、配置管理）
-12、了解JIRA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,28 +210,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2、行为驱动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+2、行为驱动
 3、销售的视频
 1、python每日一练
 2、接口自动化测试</t>
@@ -254,22 +218,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、搜书
-2、测试文档导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+    <r>
+      <t xml:space="preserve">1、Python
+2、selenium
+3、接口测试（soapUI、）
+4、Jenkins
+5、Jmeter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1、测试文档导入
-2、行为驱动BDD</t>
+      <t>6、fiddler</t>
     </r>
     <r>
       <rPr>
@@ -280,21 +247,43 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+7、GitHub
+8、SQL
+9、Java
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、听讲座。上午配置管理
-下午UI自动化和BDD</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10、burpsuite+sqlmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11、系统各个模块以及各个模块之间的联系（测量分析、报告配置、配置管理）
+12、了解JIRA</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +330,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -362,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,12 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,6 +382,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,9 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,7 +485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,7 +519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,27 +694,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="20.125" customWidth="1"/>
-    <col min="13" max="13" width="22.25" customWidth="1"/>
-    <col min="14" max="14" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="1" customFormat="1">
       <c r="B2" s="1">
         <v>30</v>
       </c>
@@ -905,298 +893,264 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+    <row r="14" spans="1:31">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+    <row r="15" spans="1:31">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+    <row r="16" spans="1:31">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+    <row r="17" spans="2:10">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+    <row r="18" spans="2:10">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+    <row r="19" spans="2:10">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+    <row r="20" spans="2:10">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+    <row r="21" spans="2:10">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+    <row r="22" spans="2:10">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+    <row r="23" spans="2:10">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+    <row r="24" spans="2:10">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1207,7 +1161,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1218,7 +1172,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1229,7 +1183,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1240,7 +1194,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1251,7 +1205,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1266,7 +1220,9 @@
   <sortState columnSort="1" ref="B2:AE2">
     <sortCondition descending="1" ref="B2:AE2"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:I24"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="D3:D9"/>
@@ -1274,12 +1230,6 @@
     <mergeCell ref="F3:G9"/>
     <mergeCell ref="H3:H9"/>
     <mergeCell ref="I3:I9"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="K3:K9"/>
-    <mergeCell ref="L3:L9"/>
-    <mergeCell ref="M3:M9"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,12 +1238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,12 +1251,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
